--- a/P0054/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0054/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,32 +1,271 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4D2F04E46CFB4ACB3E20686514EE32683EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64F04407-AC46-434F-A221-752C5E510141}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO DE MODELO</t>
+  </si>
+  <si>
+    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
+  </si>
+  <si>
+    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>TIPO DE LICENCIA</t>
+  </si>
+  <si>
+    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 1</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 2</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 3</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 4</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 5</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0054</t>
+  </si>
+  <si>
+    <t>PR1001</t>
+  </si>
+  <si>
+    <t>mojana2024</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054/05_MODELOS/mojana2024</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Presenta la modelación hidrodinámica del vertedero de Caregato en 4 escenarios hidrológicos, es decir, con 4 series de caudales diferentes pero con el mismo escenario morfológico, un vertedero en el rompedero.</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Numérico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidrodinámico e hidráulico </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>HEC-RAS 5.0.3</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 horas con un equipo con 24 núcleos reales y 36 GB de RAM    </t>
+  </si>
+  <si>
+    <t>Planv0</t>
+  </si>
+  <si>
+    <t>Presenta el escenario hidrológico de la serie de caudal de noviembre - diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Plan_1997</t>
+  </si>
+  <si>
+    <t>Presenta el escenario hidrológico de la serie de caudal de diciembre de 1997</t>
+  </si>
+  <si>
+    <t>Plan_1997_50perc</t>
+  </si>
+  <si>
+    <t>Presenta el escenario hidrológico de la serie de caudal amplificada al 50% de diciembre de 1997</t>
+  </si>
+  <si>
+    <t>Plan_1997_25perc</t>
+  </si>
+  <si>
+    <t>Presenta el escenario hidrológico de la serie de caudal amplificada al 25% de diciembre de 1997</t>
+  </si>
+  <si>
+    <t>No se puede realizar un análisis completo del modelo, ya que no presenta un informe asociado que explique cómo se obtuvo la información de insumos, qué series de caudales se usaron específicamente, qué modelo digital del terreno se usó, entre mucha más información relevante para curar el modelo. Además de ello, no se sabe si el modelo está calibrado o bajo qué parámetros lo está. No se recomienda usar esta información en el modelo de toma de decisiones.</t>
+  </si>
+  <si>
+    <t>Modelación, HEC-RAS, La Mojana, malla, geometría, rugosidad del suelo, Manning,  manchas de inundación, hidrodinámica,</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +284,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +587,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AX8" sqref="AX8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>